--- a/CollisionFree_pathplanning/資料收集/各種數量機器人/活頁簿1.xlsx
+++ b/CollisionFree_pathplanning/資料收集/各種數量機器人/活頁簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>ROA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,15 +34,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My</t>
+    <t>Average path length</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max path length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average path length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max path length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordered navigation algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONA(1234)</t>
+  </si>
+  <si>
+    <t>ONA(1243)</t>
+  </si>
+  <si>
+    <t>ONA(1324)</t>
+  </si>
+  <si>
+    <t>ONA(1342)</t>
+  </si>
+  <si>
+    <t>ONA(1423)</t>
+  </si>
+  <si>
+    <t>ONA(1432)</t>
+  </si>
+  <si>
+    <t>ONA(15462742)</t>
+  </si>
+  <si>
+    <t>ONA(12345678)</t>
+  </si>
+  <si>
+    <t>ONA(14873562)</t>
+  </si>
+  <si>
+    <t>ONA(15428376)</t>
+  </si>
+  <si>
+    <t>ONA(13748652)</t>
+  </si>
+  <si>
+    <t>ONA(17342865)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,6 +110,28 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,11 +141,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -81,9 +164,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -123,12 +227,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -137,7 +238,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Lenght of the trajectory for robots with 20 pixels radius</a:t>
+              <a:t>Length of the trajectory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Number of robots = 4 )</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
@@ -157,12 +266,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -205,37 +311,30 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+            <c:strRef>
+              <c:f>工作表1!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$3:$D$3</c:f>
+              <c:f>工作表1!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>644</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,37 +370,30 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+            <c:strRef>
+              <c:f>工作表1!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$4:$D$4</c:f>
+              <c:f>工作表1!$B$4:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>641</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>649</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -321,7 +413,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>My</c:v>
+                  <c:v>ONA(1234)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -337,37 +429,30 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+            <c:strRef>
+              <c:f>工作表1!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$5:$D$5</c:f>
+              <c:f>工作表1!$B$5:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>528</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>541</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>577</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,6 +460,305 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1D3D-4CEC-914C-5F35F9AAF812}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONA(1243)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$6:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6ADD-43FA-AE4E-03FBC822CDFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONA(1324)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6ADD-43FA-AE4E-03FBC822CDFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONA(1342)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6ADD-43FA-AE4E-03FBC822CDFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONA(1423)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$9:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6ADD-43FA-AE4E-03FBC822CDFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONA(1432)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$10:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6ADD-43FA-AE4E-03FBC822CDFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -398,63 +782,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>Number of robots (N)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -477,12 +804,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -527,12 +851,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -540,10 +861,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Lenght of the trajectory (Pixels)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -561,12 +882,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -593,12 +911,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -635,12 +950,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -659,38 +971,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -715,7 +995,811 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400">
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Length of the trajectory (Number of robots = 8 )</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$13:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42D6-4738-82E2-882F0A73610E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$14:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42D6-4738-82E2-882F0A73610E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONA(15462742)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$15:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42D6-4738-82E2-882F0A73610E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONA(12345678)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$16:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-42D6-4738-82E2-882F0A73610E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONA(14873562)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$17:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-42D6-4738-82E2-882F0A73610E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONA(15428376)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$18:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-42D6-4738-82E2-882F0A73610E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONA(13748652)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$19:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-42D6-4738-82E2-882F0A73610E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONA(17342865)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$12:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average path length</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max path length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$20:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-42D6-4738-82E2-882F0A73610E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1428862272"/>
+        <c:axId val="1428863520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1428862272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428863520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1428863520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lenght of the trajectory (Pixels)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428862272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -771,6 +1855,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1274,20 +2398,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447678</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>70395</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95457</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1301,6 +2928,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>201385</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>126547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>511559</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98177</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1572,70 +3231,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.875" style="2" customWidth="1"/>
+    <col min="4" max="6" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>661</v>
+      </c>
+      <c r="C3" s="2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>649</v>
+      </c>
+      <c r="C4" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>530</v>
+      </c>
+      <c r="C5" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>546</v>
+      </c>
+      <c r="C6" s="2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>547</v>
+      </c>
+      <c r="C7" s="2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>569</v>
+      </c>
+      <c r="C8" s="2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>541</v>
+      </c>
+      <c r="C9" s="2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>553</v>
+      </c>
+      <c r="C10" s="2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>687</v>
+      </c>
+      <c r="C13" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>652</v>
+      </c>
+      <c r="C14" s="2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>577</v>
+      </c>
+      <c r="C15" s="2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>567</v>
+      </c>
+      <c r="C16" s="2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>588</v>
+      </c>
+      <c r="C17" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>551</v>
+      </c>
+      <c r="C18" s="2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>589</v>
+      </c>
+      <c r="C19" s="2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>575</v>
+      </c>
+      <c r="C20" s="2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>651.976</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>595.98800000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
         <v>8</v>
       </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>643.97900000000004</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>644</v>
-      </c>
-      <c r="C3">
-        <v>661</v>
-      </c>
-      <c r="D3">
-        <v>687</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>603.976</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>641</v>
-      </c>
-      <c r="C4">
-        <v>649</v>
-      </c>
-      <c r="D4">
-        <v>652</v>
+      <c r="D31" s="2">
+        <v>531.99099999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>528</v>
-      </c>
-      <c r="C5">
-        <v>541</v>
-      </c>
-      <c r="D5">
-        <v>577</v>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>531.98400000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <f>STDEV(D27:D34)</f>
+        <v>55.695166075830009</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>